--- a/biology/Microbiologie/Loxophyllidae/Loxophyllidae.xlsx
+++ b/biology/Microbiologie/Loxophyllidae/Loxophyllidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Loxophyllidae sont une famille de Ciliés de la classe des Gymnostomatea et de l’ordre des Pleurostomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Loxophyllum, dérivé du grec λοξ / lox, oblique, et φυλλ / fyllos, « feuille », en référence à « la forme de feuille oblique (selon Dujardin) » de ce protozoaire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Loxophyllum, dérivé du grec λοξ / lox, oblique, et φυλλ / fyllos, « feuille », en référence à « la forme de feuille oblique (selon Dujardin) » de ce protozoaire.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le naturaliste français Félix Dujardin (1801-1860) décrit ainsi le genre type : 
@@ -551,7 +567,7 @@
 Ces Infusoires sont distingués par leur forme de feuille oblique et par les sinuosités mobiles de leur bord membraneux.
 Müller en avait fait des Kolpodes, M. Bory les laissa également dans son genre Kolpode, M. Ehrenberg en a fait des Amphileptes[note 1].
 Existence d’une rangée de vésicules limpides contenant un suc digestif.
-Les Loxophylles vivent dans les eaux stagnantes des fossés, mais non dans les infusions proprement dites[note 2],[1]. »
+Les Loxophylles vivent dans les eaux stagnantes des fossés, mais non dans les infusions proprement dites[note 2],. »
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille ont pu être observées un peu partout sur le globe, dans les eaux douces comme en eaux de mer[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille ont pu être observées un peu partout sur le globe, dans les eaux douces comme en eaux de mer.
 </t>
         </is>
       </c>
@@ -611,11 +629,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 janvier 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 janvier 2023) :
 Kolpoda Müller, 1773
-Loxophyllum Dujardin, 1840[1] nomen nudum. Synonyme : Opisthodon[3]
+Loxophyllum Dujardin, 1840 nomen nudum. Synonyme : Opisthodon
 Loxophylum idem Loxophyllum
 Siroloxophyllum Foissner &amp; Leipe, 1995</t>
         </is>
@@ -645,10 +665,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Loxophyllidae a été créée en 1995 par Wilhelm Foissner (d) et Detlef D. Leipe (d)[4],
-[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Loxophyllidae a été créée en 1995 par Wilhelm Foissner (d) et Detlef D. Leipe (d),
+.
 </t>
         </is>
       </c>
@@ -677,7 +699,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) WILHELM FOISSNER et DETLEV LEIPE, « Morphology and Ecology of Siroloxophyllum utriculariae (Penard, 1922) N. G., N. Comb. (Ciliophora, Pleurostomatida) and an Improved Classification of Pleurostomatid Ciliates », Journal of Eukaryotic Microbiology, International Society of Protistologists, vol. 42, no 5,‎ septembre 1995, p. 476-490 (ISSN 1066-5234 et 1550-7408, DOI 10.1111/J.1550-7408.1995.TB05894.X, lire en ligne)</t>
         </is>
